--- a/sem/sem1.xlsx
+++ b/sem/sem1.xlsx
@@ -31,7 +31,7 @@
     <t>1000201106</t>
   </si>
   <si>
-    <t>1000201107</t>
+    <t>1000201|107</t>
   </si>
   <si>
     <t>1000201102</t>
